--- a/ticket.xlsx
+++ b/ticket.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hardi\Desktop\Новая папка (5)\პროგრამს\practic\project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df3f0cfb906c1b96/Документы/GitHub/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E498C604-4106-4E74-A26D-00B748D3A002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E498C604-4106-4E74-A26D-00B748D3A002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65F8DFF5-4417-4ACF-91E3-34F8CFF9C239}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,11 +610,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,32 +620,117 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,115 +739,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -844,8 +842,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>164353</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>276411</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52293</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -973,6 +971,14 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1238,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="G8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1255,631 +1261,577 @@
     <col min="30" max="30" width="5.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="21" t="s">
+    <row r="1" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="23"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="52"/>
     </row>
-    <row r="2" spans="1:31" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="24" t="s">
+    <row r="2" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="56"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="25"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="31"/>
     </row>
-    <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="29" t="s">
+    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="57"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="31"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="60"/>
     </row>
-    <row r="4" spans="1:31" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="39" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="33" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="34"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="43"/>
     </row>
-    <row r="5" spans="1:31" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="13" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="25"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="31"/>
     </row>
-    <row r="6" spans="1:31" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="14" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="37" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="37" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="33" t="s">
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="34"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="43"/>
     </row>
-    <row r="7" spans="1:31" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="35" t="s">
+    <row r="7" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="36"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="41"/>
     </row>
-    <row r="8" spans="1:31" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="25"/>
+    <row r="8" spans="1:30" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="57"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="31"/>
     </row>
-    <row r="9" spans="1:31" ht="2.5499999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="5"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="3"/>
+    <row r="9" spans="1:30" ht="2.5499999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="3"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="41"/>
     </row>
-    <row r="10" spans="1:31" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+    <row r="10" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="47" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="47" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="61"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="22"/>
     </row>
-    <row r="11" spans="1:31" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="48" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="50" t="s">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="64"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="25"/>
     </row>
-    <row r="12" spans="1:31" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="49" t="s">
+    <row r="12" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="49" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="63"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="63"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="63"/>
-      <c r="AC12" s="63"/>
-      <c r="AD12" s="64"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="25"/>
     </row>
-    <row r="13" spans="1:31" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="63"/>
-      <c r="AC13" s="63"/>
-      <c r="AD13" s="64"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="25"/>
     </row>
-    <row r="14" spans="1:31" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52" t="s">
+    <row r="14" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="58" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="63"/>
-      <c r="AC14" s="63"/>
-      <c r="AD14" s="64"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="25"/>
     </row>
-    <row r="15" spans="1:31" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="53" t="s">
+    <row r="15" spans="1:30" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="67"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="28"/>
     </row>
-    <row r="16" spans="1:31" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="54" t="s">
+    <row r="16" spans="1:30" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="56"/>
-    </row>
-    <row r="17" spans="1:30" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-    </row>
-    <row r="18" spans="1:30" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:V15"/>
-    <mergeCell ref="A16:AD16"/>
-    <mergeCell ref="G13:V13"/>
-    <mergeCell ref="G14:V14"/>
-    <mergeCell ref="W10:AD15"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="G2:AD2"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G3:AD3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="W6:AD6"/>
+    <mergeCell ref="W7:AD7"/>
+    <mergeCell ref="N6:V7"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="S4:AD4"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="S5:AD5"/>
+    <mergeCell ref="G6:M7"/>
     <mergeCell ref="N8:V8"/>
     <mergeCell ref="W8:AD8"/>
     <mergeCell ref="A12:F12"/>
@@ -1893,25 +1845,14 @@
     <mergeCell ref="N10:V10"/>
     <mergeCell ref="N12:V12"/>
     <mergeCell ref="W9:AD9"/>
-    <mergeCell ref="W6:AD6"/>
-    <mergeCell ref="W7:AD7"/>
-    <mergeCell ref="N6:V7"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="S4:AD4"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="S5:AD5"/>
-    <mergeCell ref="G6:M7"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="G2:AD2"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G3:AD3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:V15"/>
+    <mergeCell ref="A16:AD16"/>
+    <mergeCell ref="G13:V13"/>
+    <mergeCell ref="G14:V14"/>
+    <mergeCell ref="W10:AD15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1" display="viptour2020@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/ticket.xlsx
+++ b/ticket.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df3f0cfb906c1b96/Документы/GitHub/ms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E498C604-4106-4E74-A26D-00B748D3A002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65F8DFF5-4417-4ACF-91E3-34F8CFF9C239}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E498C604-4106-4E74-A26D-00B748D3A002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{891CDE34-E0DC-4C3B-ABA7-0F0F3F3BD359}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,21 +620,108 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -676,93 +763,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -842,8 +842,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>164353</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>52293</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>276411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -978,6 +978,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1247,7 +1251,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="G8" sqref="A8:XFD8"/>
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,109 +1266,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="50" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="52"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="21"/>
     </row>
     <row r="2" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="31"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="23"/>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="58" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="60"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="29"/>
     </row>
     <row r="4" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6"/>
@@ -1372,7 +1376,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="37" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="6"/>
@@ -1386,7 +1390,7 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="42" t="s">
+      <c r="S4" s="31" t="s">
         <v>4</v>
       </c>
       <c r="T4" s="6"/>
@@ -1399,56 +1403,56 @@
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="43"/>
+      <c r="AD4" s="32"/>
     </row>
     <row r="5" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="31"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="23"/>
     </row>
     <row r="6" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="35" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="6"/>
@@ -1457,7 +1461,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="35" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="6"/>
@@ -1468,7 +1472,7 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="42" t="s">
+      <c r="W6" s="31" t="s">
         <v>11</v>
       </c>
       <c r="X6" s="6"/>
@@ -1477,23 +1481,23 @@
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="43"/>
+      <c r="AD6" s="32"/>
     </row>
     <row r="7" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="37"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="46"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="46"/>
+      <c r="N7" s="36"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -1502,7 +1506,7 @@
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="10"/>
-      <c r="W7" s="44" t="s">
+      <c r="W7" s="33" t="s">
         <v>12</v>
       </c>
       <c r="X7" s="9"/>
@@ -1511,39 +1515,39 @@
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
-      <c r="AD7" s="41"/>
+      <c r="AD7" s="34"/>
     </row>
     <row r="8" spans="1:30" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="31"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="23"/>
     </row>
     <row r="9" spans="1:30" ht="2.5499999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -1552,17 +1556,17 @@
       <c r="M9" s="1"/>
       <c r="N9" s="3"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="40"/>
+      <c r="W9" s="49"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
-      <c r="AD9" s="41"/>
+      <c r="AD9" s="34"/>
     </row>
     <row r="10" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="43" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="9"/>
@@ -1570,7 +1574,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="45" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="9"/>
@@ -1579,7 +1583,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="35" t="s">
+      <c r="N10" s="45" t="s">
         <v>15</v>
       </c>
       <c r="O10" s="9"/>
@@ -1590,17 +1594,17 @@
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="10"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="22"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="59"/>
     </row>
     <row r="11" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="9"/>
@@ -1608,7 +1612,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="46" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="9"/>
@@ -1617,7 +1621,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="48" t="s">
         <v>18</v>
       </c>
       <c r="O11" s="9"/>
@@ -1628,53 +1632,53 @@
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="25"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="62"/>
     </row>
     <row r="12" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="38" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="38" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="25"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="62"/>
     </row>
     <row r="13" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="30" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="6"/>
@@ -1682,7 +1686,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="18"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1698,17 +1702,17 @@
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="7"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="25"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="62"/>
     </row>
     <row r="14" spans="1:30" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="50" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="9"/>
@@ -1716,7 +1720,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="56" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="9"/>
@@ -1734,104 +1738,93 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="10"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="25"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="62"/>
     </row>
-    <row r="15" spans="1:30" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14" t="s">
+    <row r="15" spans="1:30" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="28"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="65"/>
     </row>
     <row r="16" spans="1:30" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="17"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="G2:AD2"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G3:AD3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="W6:AD6"/>
-    <mergeCell ref="W7:AD7"/>
-    <mergeCell ref="N6:V7"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="S4:AD4"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="S5:AD5"/>
-    <mergeCell ref="G6:M7"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:V15"/>
+    <mergeCell ref="A16:AD16"/>
+    <mergeCell ref="G13:V13"/>
+    <mergeCell ref="G14:V14"/>
+    <mergeCell ref="W10:AD15"/>
     <mergeCell ref="N8:V8"/>
     <mergeCell ref="W8:AD8"/>
     <mergeCell ref="A12:F12"/>
@@ -1845,14 +1838,25 @@
     <mergeCell ref="N10:V10"/>
     <mergeCell ref="N12:V12"/>
     <mergeCell ref="W9:AD9"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:V15"/>
-    <mergeCell ref="A16:AD16"/>
-    <mergeCell ref="G13:V13"/>
-    <mergeCell ref="G14:V14"/>
-    <mergeCell ref="W10:AD15"/>
+    <mergeCell ref="W6:AD6"/>
+    <mergeCell ref="W7:AD7"/>
+    <mergeCell ref="N6:V7"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="S4:AD4"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="S5:AD5"/>
+    <mergeCell ref="G6:M7"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="G2:AD2"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G3:AD3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:F8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1" display="viptour2020@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
